--- a/biology/Écologie/Étage_collinéen/Étage_collinéen.xlsx
+++ b/biology/Écologie/Étage_collinéen/Étage_collinéen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tage_collin%C3%A9en</t>
+          <t>Étage_collinéen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les massifs montagneux de la région eurosibérienne, l'étage collinéen est le premier étage de végétation qui se rencontre lors de la montée en altitude marqué par une diminution de la température (gradient thermique qui est en moyenne de 0,5°C par 100 mètres)[1]. Il est aussi fonction du climat et de l'ensoleillement, par exemple :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les massifs montagneux de la région eurosibérienne, l'étage collinéen est le premier étage de végétation qui se rencontre lors de la montée en altitude marqué par une diminution de la température (gradient thermique qui est en moyenne de 0,5°C par 100 mètres). Il est aussi fonction du climat et de l'ensoleillement, par exemple :
 sous 400 à 500 m dans les Vosges ;
 entre 500 et 800 m dans les Pyrénées ;
 entre 500 et 800 m dans les Alpes.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tage_collin%C3%A9en</t>
+          <t>Étage_collinéen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zone d'extension des espèces à feuilles caduques (feuillus) dans les zones tempérées : chênaie, hêtraie, châtaigneraie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zone d'extension des espèces à feuilles caduques (feuillus) dans les zones tempérées : chênaie, hêtraie, châtaigneraie.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tage_collin%C3%A9en</t>
+          <t>Étage_collinéen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Faune des forêts de feuillus. 
 			Représentation schématique des différents étages de végétation dans les Alpes.
